--- a/data/parts.xlsx
+++ b/data/parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C7B86-6537-464B-B4AA-FC67D8F7A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC096D27-7F7D-4373-92A9-EC315FADEBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ΚΩΔΙΚΟΙ ΑΝΤΑΛΛΑΚΤΙΚΩΝ (2)" sheetId="3" r:id="rId1"/>
@@ -20,133 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>ΤΑΚΑΚΙΑ ΜΠΡΟΣΤΑ</t>
-  </si>
-  <si>
-    <t>ΤΑΚΑΚΙΑ ΠΙΣΩ</t>
-  </si>
-  <si>
-    <t>ΔΙΣΚΟΙ ΜΠΡΟΣΤΑ</t>
-  </si>
-  <si>
-    <t>5Q0615301F</t>
-  </si>
-  <si>
-    <t>3Q0698451D</t>
-  </si>
-  <si>
-    <t>5Q0698151F</t>
-  </si>
-  <si>
-    <t>ΦΙΛΤΡΟ ΠΕΤΡΕΛΑΙΟΥ</t>
-  </si>
-  <si>
-    <t>5Q0127177</t>
-  </si>
-  <si>
-    <t>ΦΙΛΤΡΟ ΣΚΟΝΗΣ</t>
-  </si>
-  <si>
-    <t>5Q0129620B</t>
-  </si>
-  <si>
-    <t>ΦΙΛΤΡΟ ΛΑΔΙΟΥ</t>
-  </si>
-  <si>
-    <t>03N115562B</t>
-  </si>
-  <si>
-    <t>ΡΟΔΕΛΛΑ ΤΑΠΑΣ</t>
-  </si>
-  <si>
-    <t>N90813202</t>
-  </si>
-  <si>
-    <t>ΙΜΑΝΤΑΣ ΕΚΚΕΝΤΡΟΦΟΡΟΥ</t>
-  </si>
-  <si>
-    <t>ΦΙΛΤΡΟ ΚΛΙΜΑΤΙΣΜΟΥ</t>
-  </si>
-  <si>
-    <t>5Q0819653</t>
-  </si>
-  <si>
-    <t>RUBB BUSH</t>
-  </si>
-  <si>
-    <t>5Q0198037</t>
-  </si>
-  <si>
-    <t>ΒΟΛΑΝ ΚΙΝΗΤΗΡΑ</t>
-  </si>
-  <si>
-    <t>04L105266AF</t>
-  </si>
-  <si>
-    <t>N90665001</t>
-  </si>
-  <si>
-    <t>B000750M1</t>
-  </si>
-  <si>
-    <t>0A5141671S</t>
-  </si>
-  <si>
-    <t>5Q0721388J</t>
-  </si>
-  <si>
-    <t>5Q0721543</t>
-  </si>
-  <si>
-    <t>ΥΓΡΑ ΦΡΕΝΩΝ</t>
-  </si>
-  <si>
-    <t>ΤΡΟΧΑΛΙΑ ΔΥΝΑΜΟ</t>
-  </si>
-  <si>
-    <t>04L903219D</t>
-  </si>
-  <si>
-    <t>ΔΟΧΕΙΟ ΝΕΡΟΥ</t>
-  </si>
-  <si>
-    <t>5Q0121407M</t>
-  </si>
-  <si>
-    <t>ΛΑΔΙ CASTROL EDGE  5W-30</t>
-  </si>
-  <si>
-    <t>ΚΟΧΛΙΑΣ ΒΟΛΑΝ</t>
-  </si>
-  <si>
-    <t>ΤΡΟΜΠΑΚΙ ΣΥΜΠΛΕΚΤΗ ΕΞΩ</t>
-  </si>
-  <si>
-    <t>ΤΡΟΜΠΑΚΙ ΣΥΜΠΛΕΚΤΗ ΜΕΣΑ</t>
-  </si>
-  <si>
-    <t>ΜΠΕΚ</t>
-  </si>
-  <si>
-    <t>ΡΟΔΕΛΑ ΜΠΕΚ</t>
-  </si>
-  <si>
-    <t>ΜΠΟΥΛΟΝΙ ΒΙΔΑ ΒΑΣΗ ΜΠΕΚ</t>
-  </si>
-  <si>
-    <t>04L130277AC</t>
-  </si>
-  <si>
-    <t>04L103070B</t>
-  </si>
-  <si>
-    <t>WHT005478</t>
-  </si>
-  <si>
-    <t>BEARING BUSH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ΚΩΔΙΚΟΣ ΑΝΤΑΛΛΑΚΤΙΚΟΥ</t>
   </si>
@@ -572,7 +446,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,183 +457,99 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
